--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F2D6BF-BC91-A341-BE3B-99E0DB12D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4990CC-9518-454A-AD6C-223FFD9D3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3285,6 +3285,50 @@
         <v>20340</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>44504</v>
+      </c>
+      <c r="B261">
+        <v>6646</v>
+      </c>
+      <c r="C261">
+        <v>19412</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>44505</v>
+      </c>
+      <c r="B262">
+        <v>6422</v>
+      </c>
+      <c r="C262">
+        <v>21470</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>44506</v>
+      </c>
+      <c r="B263">
+        <v>7401</v>
+      </c>
+      <c r="C263">
+        <v>26466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>44507</v>
+      </c>
+      <c r="B264">
+        <v>3272</v>
+      </c>
+      <c r="C264">
+        <v>11008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4990CC-9518-454A-AD6C-223FFD9D3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB7155-12BF-A04F-933C-FCF63641C57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3329,6 +3329,83 @@
         <v>11008</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>44508</v>
+      </c>
+      <c r="B265">
+        <v>5103</v>
+      </c>
+      <c r="C265">
+        <v>16089</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B266">
+        <v>5874</v>
+      </c>
+      <c r="C266">
+        <v>16304</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>44510</v>
+      </c>
+      <c r="B267">
+        <v>6045</v>
+      </c>
+      <c r="C267">
+        <v>15962</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>44511</v>
+      </c>
+      <c r="B268">
+        <v>6285</v>
+      </c>
+      <c r="C268">
+        <v>16509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>44512</v>
+      </c>
+      <c r="B269">
+        <v>6343</v>
+      </c>
+      <c r="C269">
+        <v>16608</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>44513</v>
+      </c>
+      <c r="B270">
+        <v>7149</v>
+      </c>
+      <c r="C270">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>44514</v>
+      </c>
+      <c r="B271">
+        <v>4645</v>
+      </c>
+      <c r="C271">
+        <v>9993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB7155-12BF-A04F-933C-FCF63641C57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CCB1A4-8F4F-A446-9D8F-098A692B5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3406,6 +3406,83 @@
         <v>9993</v>
       </c>
     </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>44515</v>
+      </c>
+      <c r="B272">
+        <v>7764</v>
+      </c>
+      <c r="C272">
+        <v>13678</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>44516</v>
+      </c>
+      <c r="B273">
+        <v>6664</v>
+      </c>
+      <c r="C273">
+        <v>14367</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>44517</v>
+      </c>
+      <c r="B274">
+        <v>6197</v>
+      </c>
+      <c r="C274">
+        <v>14211</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>44518</v>
+      </c>
+      <c r="B275">
+        <v>6635</v>
+      </c>
+      <c r="C275">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>44519</v>
+      </c>
+      <c r="B276">
+        <v>6833</v>
+      </c>
+      <c r="C276">
+        <v>15775</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>44520</v>
+      </c>
+      <c r="B277">
+        <v>6002</v>
+      </c>
+      <c r="C277">
+        <v>15499</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>44521</v>
+      </c>
+      <c r="B278">
+        <v>3079</v>
+      </c>
+      <c r="C278">
+        <v>6772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CCB1A4-8F4F-A446-9D8F-098A692B5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE45326-2C16-A143-88F6-9E7F9ADC292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3483,6 +3483,83 @@
         <v>6772</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>44522</v>
+      </c>
+      <c r="B279">
+        <v>4777</v>
+      </c>
+      <c r="C279">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>44523</v>
+      </c>
+      <c r="B280">
+        <v>6496</v>
+      </c>
+      <c r="C280">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>44524</v>
+      </c>
+      <c r="B281">
+        <v>6600</v>
+      </c>
+      <c r="C281">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>44525</v>
+      </c>
+      <c r="B282">
+        <v>6319</v>
+      </c>
+      <c r="C282">
+        <v>11773</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>44526</v>
+      </c>
+      <c r="B283">
+        <v>5679</v>
+      </c>
+      <c r="C283">
+        <v>12222</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>44527</v>
+      </c>
+      <c r="B284">
+        <v>6378</v>
+      </c>
+      <c r="C284">
+        <v>14495</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B285">
+        <v>3679</v>
+      </c>
+      <c r="C285">
+        <v>8040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE45326-2C16-A143-88F6-9E7F9ADC292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D82E6A4-7C9F-1F4E-9BE0-6FFAEEC0DEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
+    <workbookView xWindow="54400" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3560,6 +3560,83 @@
         <v>8040</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B286">
+        <v>6213</v>
+      </c>
+      <c r="C286">
+        <v>11862</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B287">
+        <v>7432</v>
+      </c>
+      <c r="C287">
+        <v>14223</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B288">
+        <v>7856</v>
+      </c>
+      <c r="C288">
+        <v>14254</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>44532</v>
+      </c>
+      <c r="B289">
+        <v>8600</v>
+      </c>
+      <c r="C289">
+        <v>16641</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>44533</v>
+      </c>
+      <c r="B290">
+        <v>7352</v>
+      </c>
+      <c r="C290">
+        <v>17389</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>44534</v>
+      </c>
+      <c r="B291">
+        <v>5636</v>
+      </c>
+      <c r="C291">
+        <v>13998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>44535</v>
+      </c>
+      <c r="B292">
+        <v>2711</v>
+      </c>
+      <c r="C292">
+        <v>6757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D82E6A4-7C9F-1F4E-9BE0-6FFAEEC0DEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2942E1-746B-714A-AB25-EA2F84F906CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54400" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3637,6 +3637,83 @@
         <v>6757</v>
       </c>
     </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>44536</v>
+      </c>
+      <c r="B293">
+        <v>4517</v>
+      </c>
+      <c r="C293">
+        <v>10652</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>44537</v>
+      </c>
+      <c r="B294">
+        <v>4387</v>
+      </c>
+      <c r="C294">
+        <v>10093</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>44538</v>
+      </c>
+      <c r="B295">
+        <v>3786</v>
+      </c>
+      <c r="C295">
+        <v>9339</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>44539</v>
+      </c>
+      <c r="B296">
+        <v>3374</v>
+      </c>
+      <c r="C296">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>44540</v>
+      </c>
+      <c r="B297">
+        <v>2859</v>
+      </c>
+      <c r="C297">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>44541</v>
+      </c>
+      <c r="B298">
+        <v>2698</v>
+      </c>
+      <c r="C298">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B299">
+        <v>1193</v>
+      </c>
+      <c r="C299">
+        <v>4268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2942E1-746B-714A-AB25-EA2F84F906CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07E6AC-A9E9-2540-8FD5-5C85F565E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3714,6 +3714,39 @@
         <v>4268</v>
       </c>
     </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>44543</v>
+      </c>
+      <c r="B300">
+        <v>2434</v>
+      </c>
+      <c r="C300">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>44544</v>
+      </c>
+      <c r="B301">
+        <v>2485</v>
+      </c>
+      <c r="C301">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B302">
+        <v>2417</v>
+      </c>
+      <c r="C302">
+        <v>8156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nz_vax_by_date.xlsx
+++ b/data/nz_vax_by_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Library/Mobile Documents/com~apple~CloudDocs/Work - iCloud/Workshop/nz-covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07E6AC-A9E9-2540-8FD5-5C85F565E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82275779-04E8-F241-B7D3-05DD4C726BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{DA5A31DA-F61B-6744-87F4-69AA221CC5B6}"/>
   </bookViews>
@@ -71,6 +71,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431F64A-0828-7D41-836D-36F9BB630D4D}">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3747,6 +3748,50 @@
         <v>8156</v>
       </c>
     </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>44546</v>
+      </c>
+      <c r="B303">
+        <v>2434</v>
+      </c>
+      <c r="C303">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>44547</v>
+      </c>
+      <c r="B304">
+        <v>2039</v>
+      </c>
+      <c r="C304">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>44548</v>
+      </c>
+      <c r="B305">
+        <v>1728</v>
+      </c>
+      <c r="C305">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>44549</v>
+      </c>
+      <c r="B306">
+        <v>784</v>
+      </c>
+      <c r="C306">
+        <v>3360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
